--- a/REGULAR/CENRO-HSKB/RODRIQUEZ, RUEL.xlsx
+++ b/REGULAR/CENRO-HSKB/RODRIQUEZ, RUEL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CENRO-HSKB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F8275-31AC-4CBF-AEA5-3C8451B12B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E6935-6478-4612-BC6C-A86B3FEE4B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>11/12-14/2022</t>
+  </si>
+  <si>
+    <t>12/11,12/2022</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4308" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1452,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>258.7</v>
+        <v>256.7</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2886,7 +2889,9 @@
       <c r="A79" s="40">
         <v>44896</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -2897,10 +2902,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
